--- a/assets/sample_excel/order_details_sample.xlsx
+++ b/assets/sample_excel/order_details_sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\nia_natura_inventory_management\assets\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\nia_natura_inventory_management\assets\sample_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>SKU Code</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Amazon</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order Received fpr Himalayan Product </t>
   </si>
 </sst>
 </file>
@@ -375,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,9 +394,10 @@
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,8 +413,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -421,6 +431,9 @@
         <v>8</v>
       </c>
       <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
